--- a/Naderer/tests/Tests-WS.xlsx
+++ b/Naderer/tests/Tests-WS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Private\Git\bacc\Naderer\tests\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92578C3E-9F1E-4B7A-9EAB-978268EE4FBE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19A73A54-9E6B-43C8-B1DD-E96C625479FA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="9375" activeTab="2" xr2:uid="{EE9D9061-8DB4-44C4-ADBA-C12DA1E57691}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="10">
   <si>
     <t>AL</t>
   </si>
@@ -54,6 +54,9 @@
   </si>
   <si>
     <t>Testlauf 2</t>
+  </si>
+  <si>
+    <t>C/AL</t>
   </si>
 </sst>
 </file>
@@ -1131,7 +1134,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="de-AT" baseline="0"/>
-              <a:t> für 10 Kunden me je 10.000 Posten - Erstermittlung</a:t>
+              <a:t> für 10 Kunden mit je 10.000 Posten - Erstermittlung</a:t>
             </a:r>
             <a:endParaRPr lang="de-AT"/>
           </a:p>
@@ -1182,7 +1185,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>C/AL .NET</c:v>
+                  <c:v>C/AL</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1622,7 +1625,7 @@
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
+    <c:pageSetup orientation="portrait"/>
   </c:printSettings>
 </c:chartSpace>
 </file>
@@ -1666,7 +1669,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="de-AT" baseline="0"/>
-              <a:t> für 10 Kunden me je 10.000 Posten - Zwischenspeicher</a:t>
+              <a:t> für 10 Kunden mit je 10.000 Posten - Zwischenspeicher</a:t>
             </a:r>
             <a:endParaRPr lang="de-AT"/>
           </a:p>
@@ -1717,7 +1720,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>C/AL .NET</c:v>
+                  <c:v>C/AL</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4433,13 +4436,13 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>52387</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:rowOff>19051</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>52387</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>561974</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>112971</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4466,16 +4469,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>77530</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4915,8 +4918,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75D8CF38-910F-4B3B-A59A-C18F8E0A17EB}">
   <dimension ref="A1:O3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4967,7 +4970,7 @@
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B2">
         <v>2.5999999999999999E-2</v>
@@ -4990,7 +4993,7 @@
         <v>1.2247448713915887E-3</v>
       </c>
       <c r="I2" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="J2">
         <v>1.7000000000000001E-2</v>
@@ -5063,6 +5066,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Naderer/tests/Tests-WS.xlsx
+++ b/Naderer/tests/Tests-WS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20343"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20344"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Private\Git\bacc\Naderer\tests\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19A73A54-9E6B-43C8-B1DD-E96C625479FA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F42AD21-B9AD-43E2-A853-15D1925850DE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="9375" activeTab="2" xr2:uid="{EE9D9061-8DB4-44C4-ADBA-C12DA1E57691}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="7860" windowHeight="9375" activeTab="2" xr2:uid="{EE9D9061-8DB4-44C4-ADBA-C12DA1E57691}"/>
   </bookViews>
   <sheets>
     <sheet name="Test1-1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="12">
   <si>
     <t>AL</t>
   </si>
@@ -58,11 +58,20 @@
   <si>
     <t>C/AL</t>
   </si>
+  <si>
+    <t>Differenz</t>
+  </si>
+  <si>
+    <t>Differenz %</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.000"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -92,8 +101,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -145,11 +155,11 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="de-AT"/>
+              <a:rPr lang="de-AT" sz="1200"/>
               <a:t>AL und</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="de-AT" baseline="0"/>
+              <a:rPr lang="de-AT" sz="1200" baseline="0"/>
               <a:t> .NET - Versand von HTTP-Anfragen</a:t>
             </a:r>
           </a:p>
@@ -158,13 +168,21 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:rPr lang="de-AT" baseline="0"/>
+              <a:rPr lang="de-AT" sz="1200" baseline="0"/>
               <a:t>Laufzeitmessung von je 10.000 Anfragen</a:t>
             </a:r>
-            <a:endParaRPr lang="de-AT"/>
+            <a:endParaRPr lang="de-AT" sz="1200"/>
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.23568670634920635"/>
+          <c:y val="4.9976851851851849E-2"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -259,7 +277,7 @@
             <c:numRef>
               <c:f>'Test1-1'!$B$2:$E$2</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>45.96</c:v>
@@ -330,7 +348,7 @@
             <c:numRef>
               <c:f>'Test1-1'!$B$3:$E$3</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>37.247</c:v>
@@ -468,6 +486,14 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.35448571428571424"/>
+              <c:y val="0.8153505291005293"/>
+            </c:manualLayout>
+          </c:layout>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -497,10 +523,10 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
+        <c:tickLblPos val="low"/>
         <c:spPr>
           <a:noFill/>
           <a:ln>
@@ -662,6 +688,14 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.20008849206349205"/>
+          <c:y val="3.7797619047619045E-2"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -746,7 +780,7 @@
             <c:numRef>
               <c:f>'Test1-1'!$B$2:$E$2</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>45.96</c:v>
@@ -817,7 +851,7 @@
             <c:numRef>
               <c:f>'Test1-1'!$B$3:$E$3</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>37.247</c:v>
@@ -955,6 +989,14 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.35704523809523814"/>
+              <c:y val="0.81487500000000002"/>
+            </c:manualLayout>
+          </c:layout>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -984,7 +1026,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1066,7 +1108,7 @@
     <a:solidFill>
       <a:schemeClr val="bg1"/>
     </a:solidFill>
-    <a:ln w="92075" cap="flat" cmpd="sng" algn="ctr">
+    <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
         <a:schemeClr val="tx1">
           <a:lumMod val="15000"/>
@@ -1134,12 +1176,29 @@
             </a:r>
             <a:r>
               <a:rPr lang="de-AT" baseline="0"/>
-              <a:t> für 10 Kunden mit je 10.000 Posten - Erstermittlung</a:t>
+              <a:t> für 10 Kunden mit je 10.000 </a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-AT" baseline="0"/>
+              <a:t>Posten - Erstermittlung</a:t>
             </a:r>
             <a:endParaRPr lang="de-AT"/>
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.16944722222222222"/>
+          <c:y val="2.9398148148148149E-2"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1519,6 +1578,69 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-AT"/>
+                  <a:t>Messungen in Sekunden</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.3692791666666666"/>
+              <c:y val="0.81907473544973541"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-AT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1601,7 +1723,7 @@
     <a:solidFill>
       <a:schemeClr val="bg1"/>
     </a:solidFill>
-    <a:ln w="127000" cap="flat" cmpd="sng" algn="ctr">
+    <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
         <a:schemeClr val="tx1">
           <a:lumMod val="15000"/>
@@ -1669,12 +1791,29 @@
             </a:r>
             <a:r>
               <a:rPr lang="de-AT" baseline="0"/>
-              <a:t> für 10 Kunden mit je 10.000 Posten - Zwischenspeicher</a:t>
+              <a:t> für 10 Kunden mit je 10.000 </a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-AT" baseline="0"/>
+              <a:t>Posten - Zwischenspeicher</a:t>
             </a:r>
             <a:endParaRPr lang="de-AT"/>
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.18708611111111112"/>
+          <c:y val="2.5198412698412699E-2"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2054,6 +2193,74 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-AT"/>
+                  <a:t>Messungen</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="de-AT" baseline="0"/>
+                  <a:t> in Sekunden</a:t>
+                </a:r>
+                <a:endParaRPr lang="de-AT"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.3749676587301588"/>
+              <c:y val="0.81907473544973541"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-AT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2136,7 +2343,7 @@
     <a:solidFill>
       <a:schemeClr val="bg1"/>
     </a:solidFill>
-    <a:ln w="127000" cap="flat" cmpd="sng" algn="ctr">
+    <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
         <a:schemeClr val="tx1">
           <a:lumMod val="15000"/>
@@ -4350,15 +4557,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>100012</xdr:rowOff>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>23812</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>714375</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>176212</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>429900</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>190312</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4369,7 +4576,9 @@
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noChangeAspect="1"/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -4390,16 +4599,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>468000</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>166500</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4411,7 +4620,7 @@
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
+          <a:graphicFrameLocks noChangeAspect="1"/>
         </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -4434,15 +4643,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>52387</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>19051</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>9526</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>561974</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>112971</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>468000</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>176026</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4470,15 +4679,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>66666</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>581025</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>77530</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>468000</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>42666</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4805,10 +5014,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88AA1860-9464-48DE-89D8-EA9DDFD77639}">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:I3"/>
+      <selection activeCell="K21" sqref="K21:K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4843,23 +5052,23 @@
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="1">
         <v>45.96</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="1">
         <v>47.173999999999999</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="1">
         <v>43.707000000000001</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="1">
         <v>44.28</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="1">
         <f>SUM(B2:E2)/4</f>
         <v>45.280250000000002</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="1">
         <f>_xlfn.STDEV.P(B2:E2)</f>
         <v>1.3714923213419747</v>
       </c>
@@ -4872,30 +5081,81 @@
       <c r="A3" t="s">
         <v>0</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="1">
         <v>37.247</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="1">
         <v>37.396000000000001</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="1">
         <v>37.165999999999997</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="1">
         <v>38.015999999999998</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="1">
         <f>SUM(B3:E3)/4</f>
         <v>37.456249999999997</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="1">
         <f>_xlfn.STDEV.P(B3:E3)</f>
         <v>0.3335343872826308</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="1">
+        <f>B2-B3</f>
+        <v>8.713000000000001</v>
+      </c>
+      <c r="C4" s="1">
+        <f t="shared" ref="C4:E4" si="0">C2-C3</f>
+        <v>9.7779999999999987</v>
+      </c>
+      <c r="D4" s="1">
+        <f t="shared" si="0"/>
+        <v>6.5410000000000039</v>
+      </c>
+      <c r="E4" s="1">
+        <f t="shared" si="0"/>
+        <v>6.2640000000000029</v>
+      </c>
+      <c r="F4" s="1">
+        <f>F2-F3</f>
+        <v>7.8240000000000052</v>
+      </c>
+      <c r="G4" s="1">
+        <f t="shared" ref="G4" si="1">G2-G3</f>
+        <v>1.0379579340593439</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5">
+        <f>B4/B3</f>
+        <v>0.23392487985609581</v>
+      </c>
+      <c r="C5">
+        <f t="shared" ref="C5:G5" si="2">C4/C3</f>
+        <v>0.26147181516739754</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="2"/>
+        <v>0.17599418823656041</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="2"/>
+        <v>0.16477272727272735</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -4904,7 +5164,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="R22" sqref="R22"/>
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4916,10 +5176,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75D8CF38-910F-4B3B-A59A-C18F8E0A17EB}">
-  <dimension ref="A1:O3"/>
+  <dimension ref="A1:O4"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J29" sqref="J29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5064,6 +5324,11 @@
         <v>5.7154760664940869E-3</v>
       </c>
     </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
